--- a/loop5.xlsx
+++ b/loop5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shenglin/Desktop/实验/online_github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8B2EBB-9413-1E43-AB44-9204EC1D3AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C930743-AB6A-7A4C-BEE5-D7C461B5EB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="500" windowWidth="28240" windowHeight="16380" xr2:uid="{16ADD389-FC88-C843-A6B6-EB2AADEBE385}"/>
   </bookViews>
@@ -1220,6 +1220,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>AI的回答是: c.恐怖片(【不准确率】:87.2%)</t>
+  </si>
+  <si>
+    <t>AI的回答是: a.正常(【准确率】:98.2%)</t>
+  </si>
+  <si>
+    <t>AI的回答是: c. 埃及猫(【不准确率】:0.4%,其中由概率引起: 0.4%, 知识引起:1%,任务场景引起:0.2%)</t>
+  </si>
+  <si>
+    <t>AI的回答是: d.视盘苍白(【不准确率】:87.2%)</t>
+  </si>
+  <si>
+    <t>AI的回答是: c.白色加菲猫(【不准确率】:0.02%)</t>
+  </si>
+  <si>
+    <t>AI的回答是: c.纪录片(【不准确率】:0.02%)</t>
+  </si>
+  <si>
     <r>
       <t>(2/6)</t>
     </r>
@@ -1311,499 +1329,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>镶</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>嵌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>眼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>底</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>AI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的回答是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>: c.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>恐怖片</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>【不确定性】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>:87.2%)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>AI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的回答是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>: a.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>正常</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>【确定性】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>:98.2%)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>AI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的回答是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">: c. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>埃及猫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF4D4D4D"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF4D4D4D"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>【不确定性】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF4D4D4D"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>:0.4%,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF4D4D4D"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>其中由概率引起</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF4D4D4D"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">: 0.4%, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF4D4D4D"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>知识引起</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF4D4D4D"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>:1%,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF4D4D4D"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>任务场景引起</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF4D4D4D"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>:0.2%)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>AI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的回答是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>: d.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>视盘苍白</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>【不确定性】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>:87.2%)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>AI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的回答是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>: c.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>白色加菲猫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>【不确定性】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>:0.02%)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>AI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的回答是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>: c.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>纪录片</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>【不确定性】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>:0.02%)</t>
+      <t>镶嵌眼底</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1812,7 +1338,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1836,20 +1362,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF4D4D4D"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -1858,12 +1370,6 @@
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF4D4D4D"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1894,13 +1400,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2219,8 +1725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D6494E-B7F0-FA4A-9D9E-6660A7EBD14A}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2261,7 +1767,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>21</v>
@@ -2281,10 +1787,10 @@
         <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>10</v>
@@ -2301,7 +1807,7 @@
         <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>28</v>
@@ -2321,7 +1827,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>27</v>
@@ -2341,7 +1847,7 @@
         <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>24</v>
@@ -2361,7 +1867,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>23</v>
